--- a/NEW HR/DONE/OPO, CORAZON.xlsx
+++ b/NEW HR/DONE/OPO, CORAZON.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\DONE 2-2-2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED81E1D-D35A-4ECD-84CF-F00F7C0522EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="24" yWindow="48" windowWidth="23016" windowHeight="12312" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -27,7 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="84">
   <si>
     <t>PERIOD</t>
   </si>
@@ -189,9 +190,6 @@
     <t>FL(5-0-0)</t>
   </si>
   <si>
-    <t>OPO, CORAZON</t>
-  </si>
-  <si>
     <t>UT(0-4-0)</t>
   </si>
   <si>
@@ -281,11 +279,23 @@
   <si>
     <t>MOURNING 12/8-12</t>
   </si>
+  <si>
+    <t>OPO, CORAZON ROLLAN</t>
+  </si>
+  <si>
+    <t>PICNIC GROVE</t>
+  </si>
+  <si>
+    <t>SL(4-0-0)</t>
+  </si>
+  <si>
+    <t>6/18-21/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -664,6 +674,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -676,20 +695,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1386,7 +1396,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1429,7 +1439,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1493,7 +1503,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1553,7 +1563,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1619,7 +1629,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1682,7 +1692,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1780,7 +1790,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1839,7 +1849,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1904,7 +1914,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1947,7 +1957,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2022,7 +2032,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2208,7 +2218,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2274,7 +2284,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2332,7 +2342,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2398,7 +2408,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2454,7 +2464,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2529,7 +2539,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2572,7 +2582,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2638,7 +2648,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2694,7 +2704,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2792,7 +2802,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2855,7 +2865,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2904,7 +2914,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2921,25 +2931,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2951,25 +2961,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2981,13 +2991,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2996,14 +3006,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3307,7 +3317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3317,7 +3327,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3325,55 +3335,55 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K134"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="5535" topLeftCell="A67" activePane="bottomLeft"/>
-      <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <pane ySplit="3516" topLeftCell="A73" activePane="bottomLeft"/>
+      <selection activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3382,16 +3392,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3402,16 +3412,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3419,7 +3431,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3432,24 +3444,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3484,7 +3496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3493,7 +3505,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>51.25</v>
+        <v>56.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3503,12 +3515,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>71.25</v>
+        <v>76.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3530,7 +3542,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3550,7 +3562,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3570,7 +3582,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3590,7 +3602,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3610,7 +3622,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3630,7 +3642,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3650,7 +3662,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3670,7 +3682,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3690,7 +3702,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3710,7 +3722,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3730,12 +3742,12 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="13">
         <v>1.25</v>
@@ -3753,15 +3765,15 @@
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
       <c r="K21" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="13">
         <v>1.25</v>
@@ -3780,7 +3792,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3798,7 +3810,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3818,7 +3830,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3838,7 +3850,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3858,7 +3870,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3878,7 +3890,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3898,7 +3910,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3918,12 +3930,12 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C30" s="13">
         <v>1.25</v>
@@ -3941,10 +3953,10 @@
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
       <c r="K30" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3964,12 +3976,12 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C32" s="13">
         <v>1.25</v>
@@ -3988,7 +4000,7 @@
         <v>43730</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -4008,7 +4020,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -4028,7 +4040,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -4048,7 +4060,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="48" t="s">
         <v>44</v>
       </c>
@@ -4066,7 +4078,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -4086,7 +4098,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -4106,7 +4118,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -4126,7 +4138,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -4146,7 +4158,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -4166,7 +4178,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -4186,7 +4198,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -4206,7 +4218,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -4226,12 +4238,12 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C45" s="13">
         <v>1.25</v>
@@ -4250,7 +4262,7 @@
         <v>44096</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -4270,7 +4282,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -4290,7 +4302,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4314,7 +4326,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="48" t="s">
         <v>45</v>
       </c>
@@ -4332,7 +4344,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4352,7 +4364,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4372,7 +4384,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4392,7 +4404,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4412,12 +4424,12 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
       <c r="B54" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C54" s="13">
         <v>1.25</v>
@@ -4435,10 +4447,10 @@
       <c r="I54" s="9"/>
       <c r="J54" s="11"/>
       <c r="K54" s="20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4458,7 +4470,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4478,7 +4490,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4498,7 +4510,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4518,7 +4530,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4538,7 +4550,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4558,7 +4570,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4582,7 +4594,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>46</v>
       </c>
@@ -4600,7 +4612,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4620,7 +4632,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4640,7 +4652,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4660,7 +4672,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4680,7 +4692,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4700,7 +4712,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4720,7 +4732,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4740,7 +4752,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4760,7 +4772,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4780,7 +4792,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4800,7 +4812,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4820,7 +4832,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4844,7 +4856,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="48" t="s">
         <v>47</v>
       </c>
@@ -4862,9 +4874,9 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13">
@@ -4882,72 +4894,90 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="40">
+        <v>44985</v>
+      </c>
       <c r="B77" s="20"/>
-      <c r="C77" s="13"/>
+      <c r="C77" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="39"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="40">
+        <v>45016</v>
+      </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="40">
+        <v>45046</v>
+      </c>
       <c r="B79" s="20"/>
-      <c r="C79" s="13"/>
+      <c r="C79" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="39"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
-      <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="40">
+        <v>45077</v>
+      </c>
       <c r="B80" s="20"/>
-      <c r="C80" s="13"/>
+      <c r="C80" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="39"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
-      <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="40">
+        <v>45107</v>
+      </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
@@ -4962,8 +4992,10 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="40">
+        <v>45138</v>
+      </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -4978,8 +5010,10 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="40">
+        <v>45169</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -4994,8 +5028,10 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="40">
+        <v>45199</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -5010,8 +5046,10 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="40">
+        <v>45230</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -5026,8 +5064,10 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="40">
+        <v>45260</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -5042,8 +5082,10 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="40">
+        <v>45291</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -5058,8 +5100,10 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="40">
+        <v>45322</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -5074,8 +5118,10 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="40">
+        <v>45351</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -5090,7 +5136,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5106,7 +5152,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -5122,7 +5168,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -5138,7 +5184,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -5154,7 +5200,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -5170,7 +5216,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -5186,7 +5232,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -5202,7 +5248,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -5218,7 +5264,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -5234,7 +5280,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -5250,7 +5296,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5266,7 +5312,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -5282,7 +5328,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -5298,7 +5344,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -5314,7 +5360,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -5330,7 +5376,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -5346,7 +5392,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -5362,7 +5408,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -5378,7 +5424,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -5394,7 +5440,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -5410,7 +5456,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -5426,7 +5472,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5442,7 +5488,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5458,7 +5504,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5474,7 +5520,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5490,7 +5536,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5506,7 +5552,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5522,7 +5568,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5538,7 +5584,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5554,7 +5600,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5570,7 +5616,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5586,7 +5632,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5602,7 +5648,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5618,7 +5664,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5634,7 +5680,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5650,7 +5696,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5666,7 +5712,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5682,7 +5728,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5698,7 +5744,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5714,7 +5760,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5730,7 +5776,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5746,7 +5792,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5762,7 +5808,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5778,7 +5824,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5794,7 +5840,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="41"/>
       <c r="B134" s="15"/>
       <c r="C134" s="42"/>
@@ -5812,23 +5858,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5851,56 +5897,56 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A20" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4056" topLeftCell="A26" activePane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="50" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B2:C2),"---------",'2018 LEAVE CREDITS'!B2:C2)</f>
-        <v>OPO, CORAZON</v>
+        <v>OPO, CORAZON ROLLAN</v>
       </c>
       <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -5912,19 +5958,19 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54" t="str">
+      <c r="F3" s="57" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="58"/>
+      <c r="K3" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -5936,19 +5982,19 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55" t="str">
+      <c r="F4" s="51" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
-        <v/>
-      </c>
-      <c r="G4" s="55"/>
+        <v>PICNIC GROVE</v>
+      </c>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="58"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -5956,7 +6002,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -5969,24 +6015,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6021,7 +6067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6040,12 +6086,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>83.724999999999994</v>
+        <v>79.724999999999994</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -6067,12 +6113,12 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43132</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="39">
@@ -6089,12 +6135,12 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43191</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="39">
@@ -6111,12 +6157,12 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43252</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="39">
@@ -6133,12 +6179,12 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43282</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="39">
@@ -6155,12 +6201,12 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43313</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="39">
@@ -6177,12 +6223,12 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43344</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="42"/>
       <c r="D16" s="43">
@@ -6199,12 +6245,12 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43405</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="39">
@@ -6221,12 +6267,12 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43435</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="39"/>
@@ -6242,13 +6288,13 @@
       <c r="I18" s="9"/>
       <c r="J18" s="11"/>
       <c r="K18" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="39">
@@ -6265,7 +6311,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="48" t="s">
         <v>43</v>
       </c>
@@ -6283,12 +6329,12 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43497</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="39">
@@ -6304,13 +6350,13 @@
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
       <c r="K21" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="39">
@@ -6326,15 +6372,15 @@
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
       <c r="K22" s="20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43525</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="39">
@@ -6350,15 +6396,15 @@
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
       <c r="K23" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43617</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="39"/>
@@ -6374,15 +6420,15 @@
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
       <c r="K24" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43647</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="39"/>
@@ -6398,15 +6444,15 @@
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
       <c r="K25" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43678</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="39">
@@ -6422,15 +6468,15 @@
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
       <c r="K26" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43739</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="39"/>
@@ -6446,10 +6492,10 @@
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
       <c r="K27" s="20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="48" t="s">
         <v>44</v>
       </c>
@@ -6467,12 +6513,12 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43831</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="39"/>
@@ -6488,10 +6534,10 @@
       <c r="I29" s="9"/>
       <c r="J29" s="11"/>
       <c r="K29" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="48" t="s">
         <v>46</v>
       </c>
@@ -6509,12 +6555,12 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>44912</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="39">
@@ -6530,11 +6576,13 @@
       <c r="I31" s="9"/>
       <c r="J31" s="11"/>
       <c r="K31" s="20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="48" t="s">
+        <v>47</v>
+      </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
       <c r="D32" s="39"/>
@@ -6549,9 +6597,13 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="20"/>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="40">
+        <v>45104</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="C33" s="13"/>
       <c r="D33" s="39"/>
       <c r="E33" s="9"/>
@@ -6560,12 +6612,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H33" s="39"/>
+      <c r="H33" s="39">
+        <v>4</v>
+      </c>
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="20"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K33" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -6581,7 +6637,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -6597,7 +6653,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -6613,7 +6669,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6629,7 +6685,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6645,7 +6701,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6661,7 +6717,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6677,7 +6733,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6693,7 +6749,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6709,7 +6765,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6725,7 +6781,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6741,7 +6797,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6757,7 +6813,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6773,7 +6829,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6789,7 +6845,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6805,7 +6861,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6821,7 +6877,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6837,7 +6893,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6853,7 +6909,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6869,7 +6925,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6885,7 +6941,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6901,7 +6957,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6917,7 +6973,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6933,7 +6989,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -6949,7 +7005,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -6965,7 +7021,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -6981,7 +7037,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -6997,7 +7053,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -7013,7 +7069,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7029,7 +7085,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7045,7 +7101,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7061,7 +7117,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7077,7 +7133,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7093,7 +7149,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7109,7 +7165,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7125,7 +7181,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7141,7 +7197,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7157,7 +7213,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7173,7 +7229,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7189,7 +7245,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7205,7 +7261,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7221,7 +7277,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7237,7 +7293,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7253,7 +7309,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7269,7 +7325,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7285,7 +7341,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7301,7 +7357,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7317,7 +7373,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7333,7 +7389,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7349,7 +7405,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7365,7 +7421,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7381,7 +7437,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7397,7 +7453,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7413,7 +7469,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7429,7 +7485,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7445,7 +7501,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7461,7 +7517,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7477,7 +7533,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7493,7 +7549,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7509,7 +7565,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7525,7 +7581,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7541,7 +7597,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7557,7 +7613,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7573,7 +7629,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7589,7 +7645,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7605,7 +7661,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7621,7 +7677,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7637,7 +7693,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7653,7 +7709,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7669,7 +7725,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7685,7 +7741,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7701,7 +7757,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7717,7 +7773,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7733,7 +7789,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7749,7 +7805,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7765,7 +7821,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7781,7 +7837,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7797,7 +7853,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7813,7 +7869,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7829,7 +7885,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7845,7 +7901,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7861,7 +7917,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7877,7 +7933,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7893,7 +7949,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7909,7 +7965,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7925,7 +7981,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7941,7 +7997,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -7957,7 +8013,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -7973,7 +8029,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -7989,7 +8045,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8005,7 +8061,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8021,7 +8077,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8037,7 +8093,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8053,7 +8109,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8069,7 +8125,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8085,7 +8141,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8101,7 +8157,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="41"/>
       <c r="B130" s="15"/>
       <c r="C130" s="42"/>
@@ -8132,10 +8188,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8158,7 +8214,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8166,21 +8222,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -8193,7 +8249,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8222,7 +8278,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>91.456999999999994</v>
       </c>
@@ -8250,17 +8306,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8281,7 +8337,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8308,7 +8364,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8334,7 +8390,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8360,7 +8416,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8386,7 +8442,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8412,7 +8468,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8438,7 +8494,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8464,7 +8520,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8490,7 +8546,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8510,7 +8566,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8530,7 +8586,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8550,7 +8606,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8571,7 +8627,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8592,7 +8648,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8613,7 +8669,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8634,7 +8690,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8655,7 +8711,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8676,7 +8732,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8697,7 +8753,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8718,7 +8774,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8739,7 +8795,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8760,7 +8816,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8781,7 +8837,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8802,7 +8858,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8823,7 +8879,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8844,7 +8900,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8865,7 +8921,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8886,7 +8942,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8907,7 +8963,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8928,7 +8984,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -8949,7 +9005,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -8970,7 +9026,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -8979,7 +9035,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -8988,7 +9044,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -8997,7 +9053,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9006,7 +9062,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9015,7 +9071,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9024,7 +9080,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9033,7 +9089,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9042,7 +9098,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9051,7 +9107,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9060,7 +9116,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9069,7 +9125,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9078,7 +9134,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9087,7 +9143,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9096,7 +9152,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9105,7 +9161,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9114,7 +9170,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9123,7 +9179,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9132,7 +9188,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9141,7 +9197,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9150,7 +9206,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9159,7 +9215,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9168,7 +9224,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9177,7 +9233,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9186,7 +9242,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9195,7 +9251,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9204,7 +9260,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9213,7 +9269,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9222,7 +9278,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9231,7 +9287,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/DONE/OPO, CORAZON.xlsx
+++ b/NEW HR/DONE/OPO, CORAZON.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED81E1D-D35A-4ECD-84CF-F00F7C0522EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="48" windowWidth="23016" windowHeight="12312" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -28,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="89">
   <si>
     <t>PERIOD</t>
   </si>
@@ -290,19 +289,34 @@
   </si>
   <si>
     <t>6/18-21/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *********************NOTHING FOLLOWS***********************</t>
+  </si>
+  <si>
+    <t>SEPARATION FROM SERVICE EFFECTIVE DATE: SEPTEMBER 23, 2023</t>
+  </si>
+  <si>
+    <t>TOTAL VL = 61.000</t>
+  </si>
+  <si>
+    <t>TOTAL SL = 81.000</t>
+  </si>
+  <si>
+    <t>9/16-22/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="&quot;CM&quot;\-#######"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,6 +351,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -526,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -671,6 +693,33 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1396,7 +1445,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1439,7 +1488,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1503,7 +1552,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1563,7 +1612,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1629,7 +1678,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1692,7 +1741,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1790,7 +1839,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1849,7 +1898,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1914,7 +1963,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1957,7 +2006,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2032,7 +2081,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2218,7 +2267,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2284,7 +2333,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2342,7 +2391,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2408,7 +2457,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2464,7 +2513,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2539,7 +2588,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2582,7 +2631,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2648,7 +2697,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2704,7 +2753,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2802,7 +2851,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2865,7 +2914,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2914,7 +2963,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2931,25 +2980,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table15" displayName="Table15" ref="A8:K134" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K90" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="31">
+    <tableColumn id="1" name="PERIOD" dataDxfId="35"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="34"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="33"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="32"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="31">
       <calculatedColumnFormula>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="29">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="30"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="29">
       <calculatedColumnFormula>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="27">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="28"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="27">
       <calculatedColumnFormula>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="25"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="26"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2961,25 +3010,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2991,13 +3040,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3006,14 +3055,14 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3317,7 +3366,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3327,7 +3376,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3335,95 +3384,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K134"/>
+  <dimension ref="A2:K90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <pane ySplit="3516" topLeftCell="A73" activePane="bottomLeft"/>
+      <pane ySplit="3525" topLeftCell="A64" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
+      <selection pane="bottomLeft" activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="64"/>
+      <c r="K2" s="65"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="67"/>
+      <c r="K3" s="68"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="60"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="60"/>
+      <c r="K4" s="61"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3431,7 +3480,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3444,24 +3493,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3496,7 +3545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3505,7 +3554,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>56.25</v>
+        <v>61</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3515,12 +3564,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table15[[EARNED ]])-SUM(Table15[Absence Undertime  W/ Pay])</f>
-        <v>76.25</v>
+        <v>81</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -3542,7 +3591,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -3562,7 +3611,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -3582,7 +3631,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -3602,7 +3651,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3622,7 +3671,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3642,7 +3691,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3662,7 +3711,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3682,7 +3731,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3702,7 +3751,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3722,7 +3771,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -3742,7 +3791,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -3768,7 +3817,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -3792,7 +3841,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>43</v>
       </c>
@@ -3810,7 +3859,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -3830,7 +3879,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -3850,7 +3899,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -3870,7 +3919,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -3890,7 +3939,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -3910,7 +3959,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -3930,7 +3979,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -3956,7 +4005,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -3976,7 +4025,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -4000,7 +4049,7 @@
         <v>43730</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -4020,7 +4069,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -4040,7 +4089,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -4060,7 +4109,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>44</v>
       </c>
@@ -4078,7 +4127,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -4098,7 +4147,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -4118,7 +4167,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -4138,7 +4187,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -4158,7 +4207,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -4178,7 +4227,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -4198,7 +4247,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -4218,7 +4267,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -4238,7 +4287,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -4262,7 +4311,7 @@
         <v>44096</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -4282,7 +4331,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -4302,7 +4351,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -4326,7 +4375,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>45</v>
       </c>
@@ -4344,7 +4393,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -4364,7 +4413,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -4384,7 +4433,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -4404,7 +4453,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -4424,7 +4473,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -4450,7 +4499,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -4470,7 +4519,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -4490,7 +4539,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -4510,7 +4559,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -4530,7 +4579,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -4550,7 +4599,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -4570,7 +4619,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -4594,7 +4643,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>46</v>
       </c>
@@ -4612,7 +4661,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -4632,7 +4681,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -4652,7 +4701,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -4672,7 +4721,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -4692,7 +4741,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -4712,7 +4761,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -4732,7 +4781,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -4752,7 +4801,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -4772,7 +4821,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -4792,7 +4841,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -4812,7 +4861,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -4832,7 +4881,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -4856,7 +4905,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>47</v>
       </c>
@@ -4874,7 +4923,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44957</v>
       </c>
@@ -4894,7 +4943,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44985</v>
       </c>
@@ -4914,7 +4963,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>45016</v>
       </c>
@@ -4934,7 +4983,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>45046</v>
       </c>
@@ -4954,7 +5003,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>45077</v>
       </c>
@@ -4974,136 +5023,137 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>45107</v>
       </c>
       <c r="B81" s="20"/>
-      <c r="C81" s="13"/>
+      <c r="C81" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="39"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13" t="str">
+      <c r="G81" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>45138</v>
       </c>
       <c r="B82" s="20"/>
-      <c r="C82" s="13"/>
+      <c r="C82" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13" t="str">
+      <c r="G82" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45169</v>
       </c>
       <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
+      <c r="G83" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <v>45199</v>
+        <v>45191</v>
       </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
+      <c r="G84" s="13">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40">
-        <v>45230</v>
-      </c>
-      <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="39"/>
-      <c r="E85" s="9"/>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="50"/>
+      <c r="B85" s="51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C85" s="52"/>
+      <c r="D85" s="53"/>
+      <c r="E85" s="54"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G85" s="13"/>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="40">
-        <v>45260</v>
-      </c>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
-      <c r="D86" s="39"/>
+      <c r="D86" s="55" t="s">
+        <v>86</v>
+      </c>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H86" s="39"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="56" t="s">
+        <v>87</v>
+      </c>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="40">
-        <v>45291</v>
-      </c>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="40"/>
       <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H87" s="39"/>
-      <c r="I87" s="9"/>
-      <c r="J87" s="11"/>
-      <c r="K87" s="20"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40">
-        <v>45322</v>
-      </c>
+      <c r="G87" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="H87" s="53"/>
+      <c r="I87" s="54"/>
+      <c r="J87" s="57"/>
+      <c r="K87" s="58"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -5118,10 +5168,8 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="40">
-        <v>45351</v>
-      </c>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -5136,7 +5184,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -5151,710 +5199,6 @@
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="40"/>
-      <c r="B91" s="20"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="20"/>
-      <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H91" s="39"/>
-      <c r="I91" s="9"/>
-      <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="40"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="39"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="20"/>
-      <c r="G92" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H92" s="39"/>
-      <c r="I92" s="9"/>
-      <c r="J92" s="11"/>
-      <c r="K92" s="20"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="40"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="39"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="20"/>
-      <c r="G93" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H93" s="39"/>
-      <c r="I93" s="9"/>
-      <c r="J93" s="11"/>
-      <c r="K93" s="20"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="40"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="39"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="20"/>
-      <c r="G94" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H94" s="39"/>
-      <c r="I94" s="9"/>
-      <c r="J94" s="11"/>
-      <c r="K94" s="20"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="40"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="39"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="20"/>
-      <c r="G95" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H95" s="39"/>
-      <c r="I95" s="9"/>
-      <c r="J95" s="11"/>
-      <c r="K95" s="20"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
-      <c r="B96" s="20"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="39"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H96" s="39"/>
-      <c r="I96" s="9"/>
-      <c r="J96" s="11"/>
-      <c r="K96" s="20"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
-      <c r="B97" s="20"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="20"/>
-      <c r="G97" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H97" s="39"/>
-      <c r="I97" s="9"/>
-      <c r="J97" s="11"/>
-      <c r="K97" s="20"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="40"/>
-      <c r="B98" s="20"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="20"/>
-      <c r="G98" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H98" s="39"/>
-      <c r="I98" s="9"/>
-      <c r="J98" s="11"/>
-      <c r="K98" s="20"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
-      <c r="B99" s="20"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="39"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="20"/>
-      <c r="G99" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H99" s="39"/>
-      <c r="I99" s="9"/>
-      <c r="J99" s="11"/>
-      <c r="K99" s="20"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="40"/>
-      <c r="B100" s="20"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="20"/>
-      <c r="G100" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H100" s="39"/>
-      <c r="I100" s="9"/>
-      <c r="J100" s="11"/>
-      <c r="K100" s="20"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="40"/>
-      <c r="B101" s="20"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="39"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="20"/>
-      <c r="G101" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H101" s="39"/>
-      <c r="I101" s="9"/>
-      <c r="J101" s="11"/>
-      <c r="K101" s="20"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="40"/>
-      <c r="B102" s="20"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="39"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="20"/>
-      <c r="G102" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H102" s="39"/>
-      <c r="I102" s="9"/>
-      <c r="J102" s="11"/>
-      <c r="K102" s="20"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="40"/>
-      <c r="B103" s="20"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="39"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="20"/>
-      <c r="G103" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H103" s="39"/>
-      <c r="I103" s="9"/>
-      <c r="J103" s="11"/>
-      <c r="K103" s="20"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="40"/>
-      <c r="B104" s="20"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="39"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="20"/>
-      <c r="G104" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H104" s="39"/>
-      <c r="I104" s="9"/>
-      <c r="J104" s="11"/>
-      <c r="K104" s="20"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="40"/>
-      <c r="B105" s="20"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="39"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="20"/>
-      <c r="G105" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H105" s="39"/>
-      <c r="I105" s="9"/>
-      <c r="J105" s="11"/>
-      <c r="K105" s="20"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="40"/>
-      <c r="B106" s="20"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="39"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="20"/>
-      <c r="G106" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H106" s="39"/>
-      <c r="I106" s="9"/>
-      <c r="J106" s="11"/>
-      <c r="K106" s="20"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="40"/>
-      <c r="B107" s="20"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="39"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="20"/>
-      <c r="G107" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H107" s="39"/>
-      <c r="I107" s="9"/>
-      <c r="J107" s="11"/>
-      <c r="K107" s="20"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="40"/>
-      <c r="B108" s="20"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="39"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="20"/>
-      <c r="G108" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H108" s="39"/>
-      <c r="I108" s="9"/>
-      <c r="J108" s="11"/>
-      <c r="K108" s="20"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="40"/>
-      <c r="B109" s="20"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="39"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="20"/>
-      <c r="G109" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H109" s="39"/>
-      <c r="I109" s="9"/>
-      <c r="J109" s="11"/>
-      <c r="K109" s="20"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="40"/>
-      <c r="B110" s="20"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="39"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="20"/>
-      <c r="G110" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H110" s="39"/>
-      <c r="I110" s="9"/>
-      <c r="J110" s="11"/>
-      <c r="K110" s="20"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="40"/>
-      <c r="B111" s="20"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="39"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="20"/>
-      <c r="G111" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H111" s="39"/>
-      <c r="I111" s="9"/>
-      <c r="J111" s="11"/>
-      <c r="K111" s="20"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="40"/>
-      <c r="B112" s="20"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="39"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="20"/>
-      <c r="G112" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H112" s="39"/>
-      <c r="I112" s="9"/>
-      <c r="J112" s="11"/>
-      <c r="K112" s="20"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="40"/>
-      <c r="B113" s="20"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="39"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="20"/>
-      <c r="G113" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H113" s="39"/>
-      <c r="I113" s="9"/>
-      <c r="J113" s="11"/>
-      <c r="K113" s="20"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="40"/>
-      <c r="B114" s="20"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="39"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="20"/>
-      <c r="G114" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H114" s="39"/>
-      <c r="I114" s="9"/>
-      <c r="J114" s="11"/>
-      <c r="K114" s="20"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="40"/>
-      <c r="B115" s="20"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="39"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="20"/>
-      <c r="G115" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H115" s="39"/>
-      <c r="I115" s="9"/>
-      <c r="J115" s="11"/>
-      <c r="K115" s="20"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="40"/>
-      <c r="B116" s="20"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="39"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="20"/>
-      <c r="G116" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H116" s="39"/>
-      <c r="I116" s="9"/>
-      <c r="J116" s="11"/>
-      <c r="K116" s="20"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="40"/>
-      <c r="B117" s="20"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="39"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="20"/>
-      <c r="G117" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H117" s="39"/>
-      <c r="I117" s="9"/>
-      <c r="J117" s="11"/>
-      <c r="K117" s="20"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="40"/>
-      <c r="B118" s="20"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="39"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="20"/>
-      <c r="G118" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H118" s="39"/>
-      <c r="I118" s="9"/>
-      <c r="J118" s="11"/>
-      <c r="K118" s="20"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="40"/>
-      <c r="B119" s="20"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="39"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="20"/>
-      <c r="G119" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H119" s="39"/>
-      <c r="I119" s="9"/>
-      <c r="J119" s="11"/>
-      <c r="K119" s="20"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="40"/>
-      <c r="B120" s="20"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="39"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="20"/>
-      <c r="G120" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H120" s="39"/>
-      <c r="I120" s="9"/>
-      <c r="J120" s="11"/>
-      <c r="K120" s="20"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="40"/>
-      <c r="B121" s="20"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="39"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="20"/>
-      <c r="G121" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H121" s="39"/>
-      <c r="I121" s="9"/>
-      <c r="J121" s="11"/>
-      <c r="K121" s="20"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="40"/>
-      <c r="B122" s="20"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="39"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="20"/>
-      <c r="G122" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H122" s="39"/>
-      <c r="I122" s="9"/>
-      <c r="J122" s="11"/>
-      <c r="K122" s="20"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="40"/>
-      <c r="B123" s="20"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="39"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="20"/>
-      <c r="G123" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H123" s="39"/>
-      <c r="I123" s="9"/>
-      <c r="J123" s="11"/>
-      <c r="K123" s="20"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="40"/>
-      <c r="B124" s="20"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="39"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="20"/>
-      <c r="G124" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H124" s="39"/>
-      <c r="I124" s="9"/>
-      <c r="J124" s="11"/>
-      <c r="K124" s="20"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="40"/>
-      <c r="B125" s="20"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="39"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="20"/>
-      <c r="G125" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H125" s="39"/>
-      <c r="I125" s="9"/>
-      <c r="J125" s="11"/>
-      <c r="K125" s="20"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="40"/>
-      <c r="B126" s="20"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="39"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="20"/>
-      <c r="G126" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H126" s="39"/>
-      <c r="I126" s="9"/>
-      <c r="J126" s="11"/>
-      <c r="K126" s="20"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="40"/>
-      <c r="B127" s="20"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="39"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="20"/>
-      <c r="G127" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H127" s="39"/>
-      <c r="I127" s="9"/>
-      <c r="J127" s="11"/>
-      <c r="K127" s="20"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="40"/>
-      <c r="B128" s="20"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="39"/>
-      <c r="E128" s="9"/>
-      <c r="F128" s="20"/>
-      <c r="G128" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H128" s="39"/>
-      <c r="I128" s="9"/>
-      <c r="J128" s="11"/>
-      <c r="K128" s="20"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="40"/>
-      <c r="B129" s="20"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="39"/>
-      <c r="E129" s="9"/>
-      <c r="F129" s="20"/>
-      <c r="G129" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H129" s="39"/>
-      <c r="I129" s="9"/>
-      <c r="J129" s="11"/>
-      <c r="K129" s="20"/>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="40"/>
-      <c r="B130" s="20"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="39"/>
-      <c r="E130" s="9"/>
-      <c r="F130" s="20"/>
-      <c r="G130" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="39"/>
-      <c r="I130" s="9"/>
-      <c r="J130" s="11"/>
-      <c r="K130" s="20"/>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" s="40"/>
-      <c r="B131" s="20"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="39"/>
-      <c r="E131" s="9"/>
-      <c r="F131" s="20"/>
-      <c r="G131" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="39"/>
-      <c r="I131" s="9"/>
-      <c r="J131" s="11"/>
-      <c r="K131" s="20"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="40"/>
-      <c r="B132" s="20"/>
-      <c r="C132" s="13"/>
-      <c r="D132" s="39"/>
-      <c r="E132" s="9"/>
-      <c r="F132" s="20"/>
-      <c r="G132" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H132" s="39"/>
-      <c r="I132" s="9"/>
-      <c r="J132" s="11"/>
-      <c r="K132" s="20"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="40"/>
-      <c r="B133" s="20"/>
-      <c r="C133" s="13"/>
-      <c r="D133" s="39"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="20"/>
-      <c r="G133" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H133" s="39"/>
-      <c r="I133" s="9"/>
-      <c r="J133" s="11"/>
-      <c r="K133" s="20"/>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="41"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="43"/>
-      <c r="E134" s="9"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="42" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H134" s="43"/>
-      <c r="I134" s="9"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5871,10 +5215,10 @@
     <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5897,104 +5241,104 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K130"/>
+  <dimension ref="A2:K132"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A26" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A26" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+      <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="str">
+      <c r="B2" s="59" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B2:C2),"---------",'2018 LEAVE CREDITS'!B2:C2)</f>
         <v>OPO, CORAZON ROLLAN</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="59"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="56"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="64"/>
+      <c r="K2" s="65"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50" t="str">
+      <c r="B3" s="59" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B3:C3),"",'2018 LEAVE CREDITS'!B3:C3)</f>
         <v/>
       </c>
-      <c r="C3" s="50"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57" t="str">
+      <c r="F3" s="66" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F3:G3),"---------",'2018 LEAVE CREDITS'!F3:G3)</f>
         <v>---------</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="60"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="58"/>
-      <c r="K3" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="67"/>
+      <c r="K3" s="68"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="str">
+      <c r="B4" s="59" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!B4:C4),"---------",'2018 LEAVE CREDITS'!B4:C4)</f>
         <v>CASUAL</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="str">
+      <c r="F4" s="60" t="str">
         <f>IF(ISBLANK('2018 LEAVE CREDITS'!F4:G4),"",'2018 LEAVE CREDITS'!F4:G4)</f>
         <v>PICNIC GROVE</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="60"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="60"/>
+      <c r="K4" s="61"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6002,7 +5346,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6015,24 +5359,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6067,7 +5411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6076,7 +5420,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>52.400999999999996</v>
+        <v>46.400999999999996</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6091,7 +5435,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>42</v>
       </c>
@@ -6113,7 +5457,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43132</v>
       </c>
@@ -6135,7 +5479,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43191</v>
       </c>
@@ -6157,7 +5501,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43252</v>
       </c>
@@ -6179,7 +5523,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43282</v>
       </c>
@@ -6201,7 +5545,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43313</v>
       </c>
@@ -6223,7 +5567,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43344</v>
       </c>
@@ -6245,7 +5589,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43405</v>
       </c>
@@ -6267,7 +5611,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43435</v>
       </c>
@@ -6291,7 +5635,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>59</v>
@@ -6311,7 +5655,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="48" t="s">
         <v>43</v>
       </c>
@@ -6329,7 +5673,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43497</v>
       </c>
@@ -6353,7 +5697,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>60</v>
@@ -6375,7 +5719,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43525</v>
       </c>
@@ -6399,7 +5743,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43617</v>
       </c>
@@ -6423,7 +5767,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43647</v>
       </c>
@@ -6447,7 +5791,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43678</v>
       </c>
@@ -6471,7 +5815,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43739</v>
       </c>
@@ -6495,7 +5839,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
         <v>44</v>
       </c>
@@ -6513,7 +5857,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43831</v>
       </c>
@@ -6537,51 +5881,55 @@
         <v>75</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
       <c r="D30" s="39"/>
-      <c r="E30" s="9"/>
+      <c r="E30" s="9">
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>46.400999999999996</v>
+      </c>
       <c r="F30" s="20"/>
       <c r="G30" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H30" s="39"/>
-      <c r="I30" s="9"/>
+      <c r="I30" s="9">
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>79.724999999999994</v>
+      </c>
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="40">
-        <v>44912</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>78</v>
-      </c>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="48"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="13"/>
-      <c r="D31" s="39">
-        <v>6</v>
-      </c>
-      <c r="E31" s="9"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="9">
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>46.400999999999996</v>
+      </c>
       <c r="F31" s="20"/>
       <c r="G31" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H31" s="39"/>
-      <c r="I31" s="9"/>
+      <c r="I31" s="9">
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>79.724999999999994</v>
+      </c>
       <c r="J31" s="11"/>
-      <c r="K31" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="20"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -6597,32 +5945,34 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
-        <v>45104</v>
+        <v>44912</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C33" s="13"/>
-      <c r="D33" s="39"/>
+      <c r="D33" s="39">
+        <v>6</v>
+      </c>
       <c r="E33" s="9"/>
       <c r="F33" s="20"/>
       <c r="G33" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H33" s="39">
-        <v>4</v>
-      </c>
+      <c r="H33" s="39"/>
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
       <c r="K33" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="48" t="s">
+        <v>47</v>
+      </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
       <c r="D34" s="39"/>
@@ -6637,9 +5987,13 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
-      <c r="B35" s="20"/>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="40">
+        <v>45104</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="C35" s="13"/>
       <c r="D35" s="39"/>
       <c r="E35" s="9"/>
@@ -6648,16 +6002,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H35" s="39"/>
+      <c r="H35" s="39">
+        <v>4</v>
+      </c>
       <c r="I35" s="9"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="20"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="40"/>
-      <c r="B36" s="20"/>
+      <c r="K35" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="40">
+        <v>45180</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>78</v>
+      </c>
       <c r="C36" s="13"/>
-      <c r="D36" s="39"/>
+      <c r="D36" s="39">
+        <v>6</v>
+      </c>
       <c r="E36" s="9"/>
       <c r="F36" s="20"/>
       <c r="G36" s="13" t="str">
@@ -6667,9 +6031,11 @@
       <c r="H36" s="39"/>
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="20"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K36" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -6685,7 +6051,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -6701,7 +6067,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -6717,7 +6083,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -6733,7 +6099,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -6749,7 +6115,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -6765,7 +6131,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -6781,7 +6147,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -6797,7 +6163,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -6813,7 +6179,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -6829,7 +6195,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -6845,7 +6211,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -6861,7 +6227,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -6877,7 +6243,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -6893,7 +6259,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -6909,7 +6275,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -6925,7 +6291,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -6941,7 +6307,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -6957,7 +6323,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -6973,7 +6339,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -6989,7 +6355,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -7005,7 +6371,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -7021,7 +6387,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -7037,7 +6403,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -7053,7 +6419,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -7069,7 +6435,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -7085,7 +6451,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -7101,7 +6467,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -7117,7 +6483,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -7133,7 +6499,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -7149,7 +6515,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -7165,7 +6531,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -7181,7 +6547,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -7197,7 +6563,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -7213,7 +6579,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -7229,7 +6595,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -7245,7 +6611,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -7261,7 +6627,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -7277,7 +6643,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -7293,7 +6659,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -7309,7 +6675,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -7325,7 +6691,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -7341,7 +6707,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -7357,7 +6723,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -7373,7 +6739,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -7389,7 +6755,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -7405,7 +6771,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -7421,7 +6787,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -7437,7 +6803,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -7453,7 +6819,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -7469,7 +6835,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -7485,7 +6851,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -7501,7 +6867,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -7517,7 +6883,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -7533,7 +6899,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -7549,7 +6915,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -7565,7 +6931,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -7581,7 +6947,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -7597,7 +6963,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -7613,7 +6979,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -7629,7 +6995,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -7645,7 +7011,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -7661,7 +7027,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -7677,7 +7043,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -7693,7 +7059,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -7709,7 +7075,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -7725,7 +7091,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -7741,7 +7107,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -7757,7 +7123,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -7773,7 +7139,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -7789,7 +7155,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -7805,7 +7171,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -7821,7 +7187,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -7837,7 +7203,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -7853,7 +7219,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -7869,7 +7235,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -7885,7 +7251,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -7901,7 +7267,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -7917,7 +7283,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -7933,7 +7299,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -7949,7 +7315,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -7965,7 +7331,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -7981,7 +7347,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -7997,7 +7363,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8013,7 +7379,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8029,7 +7395,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8045,7 +7411,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -8061,7 +7427,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -8077,7 +7443,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -8093,7 +7459,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -8109,7 +7475,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -8125,7 +7491,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -8141,7 +7507,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -8157,21 +7523,53 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="41"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="42"/>
-      <c r="D130" s="43"/>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="40"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="39"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="43"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="39"/>
       <c r="I130" s="9"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="15"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="20"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="40"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="39"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="20"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="41"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="43"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="43"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8188,10 +7586,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8214,42 +7612,42 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="60" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="J1" s="61" t="s">
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="J1" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8278,7 +7676,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>91.456999999999994</v>
       </c>
@@ -8286,37 +7684,35 @@
         <v>97.724999999999994</v>
       </c>
       <c r="D3"/>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>59</v>
-      </c>
+      <c r="E3"/>
+      <c r="F3"/>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.748</v>
-      </c>
-      <c r="J3" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>7</v>
+      </c>
       <c r="K3" s="35">
         <f>J4-1</f>
-        <v>-1</v>
-      </c>
-      <c r="L3" s="45" t="str">
+        <v>6</v>
+      </c>
+      <c r="L3" s="45">
         <f>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</f>
-        <v>---</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8330,14 +7726,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="61" t="s">
+      <c r="I6" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8364,7 +7760,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8390,7 +7786,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -8416,7 +7812,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -8442,7 +7838,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -8468,7 +7864,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -8494,7 +7890,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -8520,7 +7916,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -8546,7 +7942,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -8566,7 +7962,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -8586,7 +7982,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -8606,7 +8002,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -8627,7 +8023,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -8648,7 +8044,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -8669,7 +8065,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -8690,7 +8086,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -8711,7 +8107,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -8732,7 +8128,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -8753,7 +8149,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -8774,7 +8170,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -8795,7 +8191,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -8816,7 +8212,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -8837,7 +8233,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -8858,7 +8254,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -8879,7 +8275,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -8900,7 +8296,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -8921,7 +8317,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -8942,7 +8338,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -8963,7 +8359,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -8984,7 +8380,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9005,7 +8401,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9026,7 +8422,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9035,7 +8431,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9044,7 +8440,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9053,7 +8449,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9062,7 +8458,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9071,7 +8467,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9080,7 +8476,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9089,7 +8485,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9098,7 +8494,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9107,7 +8503,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9116,7 +8512,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9125,7 +8521,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9134,7 +8530,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9143,7 +8539,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9152,7 +8548,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9161,7 +8557,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9170,7 +8566,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9179,7 +8575,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9188,7 +8584,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9197,7 +8593,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9206,7 +8602,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9215,7 +8611,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9224,7 +8620,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9233,7 +8629,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9242,7 +8638,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9251,7 +8647,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9260,7 +8656,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9269,7 +8665,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9278,7 +8674,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9287,7 +8683,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
